--- a/variable_importance.xlsx
+++ b/variable_importance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.09755078549766123</v>
+        <v>0.0520139986529338</v>
       </c>
       <c r="C2">
-        <v>0.08</v>
+        <v>0.03216544717042386</v>
       </c>
       <c r="D2">
-        <v>0.08</v>
+        <v>0.036875906360058</v>
       </c>
     </row>
     <row r="3">
@@ -402,573 +402,4893 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.06602282359217815</v>
+        <v>0.0414640168969344</v>
       </c>
       <c r="C3">
-        <v>0.07000000000000001</v>
+        <v>0.03203523279832469</v>
       </c>
       <c r="D3">
-        <v>0.07000000000000001</v>
+        <v>0.03449347420758235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Immigrants_Marokko</t>
+          <t>avg3</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.05361564666180194</v>
+        <v>0.03854513699481618</v>
       </c>
       <c r="C4">
-        <v>0.06</v>
+        <v>0.02807707263821453</v>
       </c>
       <c r="D4">
-        <v>0.06</v>
+        <v>0.03573648228713486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>charger_latitude</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.05227956449641636</v>
+        <v>0.03649317783086772</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
+        <v>0.03810893056541578</v>
       </c>
       <c r="D5">
-        <v>0.03</v>
+        <v>0.06028589185829708</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Passenger_cars_per_household</t>
+          <t>charger_longitude</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.05004220247093137</v>
+        <v>0.03429121684206377</v>
       </c>
       <c r="C6">
-        <v>0.05</v>
+        <v>0.03081193120400133</v>
       </c>
       <c r="D6">
-        <v>0.05</v>
+        <v>0.1075201988812927</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Households_without_children</t>
+          <t>Immigrants_Marokko</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.04814656237513517</v>
+        <v>0.02554667455550737</v>
       </c>
       <c r="C7">
-        <v>0.03</v>
+        <v>0.01206534264217447</v>
       </c>
       <c r="D7">
-        <v>0.03</v>
+        <v>0.009426144603273255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fac_bench_waste</t>
+          <t>Percentage_single_family_home</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.04699253851262227</v>
+        <v>0.02381507950512764</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0.008396864866021897</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>0.00870105655686762</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fac_community_centre</t>
+          <t>n_rating</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.04628115566418385</v>
+        <v>0.01739755162964026</v>
       </c>
       <c r="C9">
-        <v>0.04</v>
+        <v>0.02833714463070847</v>
       </c>
       <c r="D9">
-        <v>0.04</v>
+        <v>0.02268489745183344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fac_bicycle_parking</t>
+          <t>Fac_bench_waste</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.0408470137093202</v>
+        <v>0.01676175603093303</v>
       </c>
       <c r="C10">
-        <v>0.04</v>
+        <v>0.01965630540799909</v>
       </c>
       <c r="D10">
-        <v>0.04</v>
+        <v>0.02910710586285477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>charger_latitude</t>
+          <t>Built_before_2000</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.03820271970738695</v>
+        <v>0.01550600273082763</v>
       </c>
       <c r="C11">
-        <v>0.04</v>
+        <v>0.01316199738144249</v>
       </c>
       <c r="D11">
-        <v>0.04</v>
+        <v>0.01160140874249016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Built_before_2000</t>
+          <t>Fac_charging_station</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.03457473069105722</v>
+        <v>0.01487703555388705</v>
       </c>
       <c r="C12">
-        <v>0.03</v>
+        <v>0.006425811699315394</v>
       </c>
       <c r="D12">
-        <v>0.03</v>
+        <v>0.01015123264967889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fac_pharmacy</t>
+          <t>counts_1000</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.03386436344175014</v>
+        <v>0.01436874780580836</v>
       </c>
       <c r="C13">
-        <v>0.03</v>
+        <v>0.0152757512299015</v>
       </c>
       <c r="D13">
-        <v>0.03</v>
+        <v>0.01698777708721773</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fac_cinema</t>
+          <t>Average_household_size</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.03345497400148831</v>
+        <v>0.0143271699081897</v>
       </c>
       <c r="C14">
-        <v>0.03</v>
+        <v>0.01577306310580899</v>
       </c>
       <c r="D14">
-        <v>0.03</v>
+        <v>0.01035840066293764</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fac_waste_disposal</t>
+          <t>G.I.Trade_hospitality</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.0308700482056774</v>
+        <v>0.01414215949591647</v>
       </c>
       <c r="C15">
-        <v>0.03</v>
+        <v>0.006388709522059742</v>
       </c>
       <c r="D15">
-        <v>0.03</v>
+        <v>0.005489952351356951</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Immigrants_Turkey</t>
+          <t>Ownership_private_landlords</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.02862673276669296</v>
+        <v>0.01398831259805573</v>
       </c>
       <c r="C16">
-        <v>0.03</v>
+        <v>0.008712233372694937</v>
       </c>
       <c r="D16">
-        <v>0.03</v>
+        <v>0.006732960430909467</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Percentage_single_family_home</t>
+          <t>Passenger_cars_per_household</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.02731248741305237</v>
+        <v>0.01295269834474287</v>
       </c>
       <c r="C17">
-        <v>0.03</v>
+        <v>0.01277563528559758</v>
       </c>
       <c r="D17">
-        <v>0.03</v>
+        <v>0.007665216490573856</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Widowed</t>
+          <t>Fac_recycling</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.02655586319936632</v>
+        <v>0.01292295400101607</v>
       </c>
       <c r="C18">
-        <v>0.03</v>
+        <v>0.00401309992258488</v>
       </c>
       <c r="D18">
-        <v>0.03</v>
+        <v>0.006940128444168221</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fac_charging_station</t>
+          <t>Percentage_inhabited</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.02549440189993594</v>
+        <v>0.01259397145642385</v>
       </c>
       <c r="C19">
-        <v>0.03</v>
+        <v>0.01054272636787522</v>
       </c>
       <c r="D19">
-        <v>0.03</v>
+        <v>0.01129065672260203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>counts_1000</t>
+          <t>Widowed</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.02392586482802257</v>
+        <v>0.01138805909799661</v>
       </c>
       <c r="C20">
-        <v>0.03</v>
+        <v>0.008692968780658349</v>
       </c>
       <c r="D20">
-        <v>0.03</v>
+        <v>0.004661280298321939</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Average_household_size</t>
+          <t>counts_250</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.02351932764785634</v>
+        <v>0.01024959775903596</v>
       </c>
       <c r="C21">
-        <v>0.03</v>
+        <v>0.002519023784636131</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>0.007975968510461985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fac_clothes</t>
+          <t>K.L.Financial_services_real_estate</t>
         </is>
       </c>
       <c r="B22">
-        <v>0.01742468293061277</v>
+        <v>0.01018992484088197</v>
       </c>
       <c r="C22">
-        <v>0.01</v>
+        <v>0.006059070947211451</v>
       </c>
       <c r="D22">
-        <v>0.01</v>
+        <v>0.006940128444168221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>O.Q.Government_education_care</t>
+          <t>Fac_clothes</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.01637556330626006</v>
+        <v>0.009927744348256861</v>
       </c>
       <c r="C23">
-        <v>0.02</v>
+        <v>0.003359174048454016</v>
       </c>
       <c r="D23">
-        <v>0.02</v>
+        <v>0.003832608245286928</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fac_car_rental</t>
+          <t>Fac_fuel</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.01589969646595655</v>
+        <v>0.008936499979112673</v>
       </c>
       <c r="C24">
-        <v>0.02</v>
+        <v>0.003296742500187294</v>
       </c>
       <c r="D24">
-        <v>0.02</v>
+        <v>0.007354464470685726</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fac_school</t>
+          <t>Avg_property_value_homes</t>
         </is>
       </c>
       <c r="B25">
-        <v>0.01528264132049933</v>
+        <v>0.008794189488852829</v>
       </c>
       <c r="C25">
-        <v>0.02</v>
+        <v>0.01372530832266051</v>
       </c>
       <c r="D25">
-        <v>0.02</v>
+        <v>0.01015123264967889</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ownership_private_landlords</t>
+          <t>Households_without_children</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.01462750406845972</v>
+        <v>0.008746964028827861</v>
       </c>
       <c r="C26">
-        <v>0.02</v>
+        <v>0.00679933073380258</v>
       </c>
       <c r="D26">
-        <v>0.02</v>
+        <v>0.004143360265175057</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>highway</t>
+          <t>Fac_restaurant</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.01096478871394495</v>
+        <v>0.008739504468339177</v>
       </c>
       <c r="C27">
-        <v>0.01</v>
+        <v>0.007241702847235353</v>
       </c>
       <c r="D27">
-        <v>0.01</v>
+        <v>0.007561632483944479</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Surface_area_land</t>
+          <t>Agriculture_forestry_fishing</t>
         </is>
       </c>
       <c r="B28">
-        <v>0.009436055975873296</v>
+        <v>0.008672096832231056</v>
       </c>
       <c r="C28">
-        <v>0.01</v>
+        <v>0.006428665712950444</v>
       </c>
       <c r="D28">
-        <v>0.01</v>
+        <v>0.005179200331468821</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Avg_property_value_homes</t>
+          <t>Fac_bicycle_parking</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.008692215437450241</v>
+        <v>0.008550256155664031</v>
       </c>
       <c r="C29">
-        <v>0.01</v>
+        <v>0.004420153617283907</v>
       </c>
       <c r="D29">
-        <v>0.01</v>
+        <v>0.008286720530350114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fac_radiotechnics</t>
+          <t>H.J.Transport_information_communication</t>
         </is>
       </c>
       <c r="B30">
-        <v>0.007685702342288936</v>
+        <v>0.008543531140806641</v>
       </c>
       <c r="C30">
-        <v>0.01</v>
+        <v>0.007310199174476556</v>
       </c>
       <c r="D30">
-        <v>0.01</v>
+        <v>0.005282784338098197</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pop_15_25</t>
+          <t>Pop_25_45</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.007345822080039011</v>
+        <v>0.008426195202010827</v>
       </c>
       <c r="C31">
-        <v>0.01</v>
+        <v>0.008446096601226513</v>
       </c>
       <c r="D31">
-        <v>0.01</v>
+        <v>0.004661280298321939</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fac_recycling</t>
+          <t>Motorcycles</t>
         </is>
       </c>
       <c r="B32">
-        <v>0.007081558179591454</v>
+        <v>0.008312275851268666</v>
       </c>
       <c r="C32">
-        <v>0.01</v>
+        <v>0.004213237628742771</v>
       </c>
       <c r="D32">
-        <v>0.01</v>
+        <v>0.005179200331468821</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fac_post_office</t>
+          <t>Immigrants_Turkey</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.007054559692543069</v>
+        <v>0.008211276421258183</v>
       </c>
       <c r="C33">
-        <v>0.01</v>
+        <v>0.01549444002468722</v>
       </c>
       <c r="D33">
-        <v>0.01</v>
+        <v>0.009633312616532008</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Properties_for_sale</t>
+          <t>Surface_area_water</t>
         </is>
       </c>
       <c r="B34">
-        <v>0.007036723053996361</v>
+        <v>0.008059212995435891</v>
       </c>
       <c r="C34">
-        <v>0.01</v>
+        <v>0.01194690107631989</v>
       </c>
       <c r="D34">
-        <v>0.01</v>
+        <v>0.009426144603273255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>G.I.Trade_hospitality</t>
+          <t>Fac_waste_disposal</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.006939211233175232</v>
+        <v>0.008022416181639052</v>
       </c>
       <c r="C35">
-        <v>0.01</v>
+        <v>0.005966315504072321</v>
       </c>
       <c r="D35">
-        <v>0.01</v>
+        <v>0.003418272218769422</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fac_lifeboat</t>
+          <t>Properties_for_sale</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.006732375172340647</v>
+        <v>0.007955290240214777</v>
       </c>
       <c r="C36">
-        <v>0.01</v>
+        <v>0.006182150285222988</v>
       </c>
       <c r="D36">
-        <v>0.01</v>
+        <v>0.005179200331468821</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fac_fuel</t>
+          <t>Fac_parking</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.006646032796332217</v>
+        <v>0.007899587196508238</v>
       </c>
       <c r="C37">
-        <v>0.01</v>
+        <v>0.0108955538035083</v>
       </c>
       <c r="D37">
-        <v>0.01</v>
+        <v>0.008908224570126373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Surface_area_total</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>0.0078796712635018</v>
+      </c>
+      <c r="C38">
+        <v>0.01034829668898743</v>
+      </c>
+      <c r="D38">
+        <v>0.005593536357986327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Passenger_cars_per_area</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>0.00786539754426843</v>
+      </c>
+      <c r="C39">
+        <v>0.006826443863335557</v>
+      </c>
+      <c r="D39">
+        <v>0.007975968510461985</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ownership_housing_corporation</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0.007723352702792719</v>
+      </c>
+      <c r="C40">
+        <v>0.005017355970418149</v>
+      </c>
+      <c r="D40">
+        <v>0.005179200331468821</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Fac_school</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>0.00758130251268377</v>
+      </c>
+      <c r="C41">
+        <v>0.003029178721901344</v>
+      </c>
+      <c r="D41">
+        <v>0.005075616324839445</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B.F.Industry_energy</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>0.007563449963521875</v>
+      </c>
+      <c r="C42">
+        <v>0.005756188750191754</v>
+      </c>
+      <c r="D42">
+        <v>0.006422208411021338</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Passenger_cars_fuel_other</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0.007497457932343968</v>
+      </c>
+      <c r="C43">
+        <v>0.009733613502338508</v>
+      </c>
+      <c r="D43">
+        <v>0.005075616324839445</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Surface_area_land</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>0.006967022088321015</v>
+      </c>
+      <c r="C44">
+        <v>0.003907858169792406</v>
+      </c>
+      <c r="D44">
+        <v>0.003107520198881293</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fac_post_box_parcel_locker</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>0.006674522571042362</v>
+      </c>
+      <c r="C45">
+        <v>0.0118020598843411</v>
+      </c>
+      <c r="D45">
+        <v>0.009426144603273255</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Population_density</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>0.006432012568587345</v>
+      </c>
+      <c r="C46">
+        <v>0.009256279721876372</v>
+      </c>
+      <c r="D46">
+        <v>0.008286720530350114</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Immigrants_western_total</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>0.00638205039122248</v>
+      </c>
+      <c r="C47">
+        <v>0.01464323045803351</v>
+      </c>
+      <c r="D47">
+        <v>0.007975968510461985</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>counts_500</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>0.006249337131868609</v>
+      </c>
+      <c r="C48">
+        <v>0.007618432647061971</v>
+      </c>
+      <c r="D48">
+        <v>0.01294800082867205</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Immigrants_other_non_western</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>0.006123079078539921</v>
+      </c>
+      <c r="C49">
+        <v>0.006913491279204586</v>
+      </c>
+      <c r="D49">
+        <v>0.00435052827843381</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Fac_cinema</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>0.005902503226699657</v>
+      </c>
+      <c r="C50">
+        <v>0.002845451594144991</v>
+      </c>
+      <c r="D50">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>OAD</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>0.005891996133850713</v>
+      </c>
+      <c r="C51">
+        <v>0.004384835198550161</v>
+      </c>
+      <c r="D51">
+        <v>0.003625440232028175</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Divorced</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>0.005843829314375931</v>
+      </c>
+      <c r="C52">
+        <v>0.004780472838708987</v>
+      </c>
+      <c r="D52">
+        <v>0.003314688212140046</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Fac_community_centre</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>0.005768904471398674</v>
+      </c>
+      <c r="C53">
+        <v>0.002171904376273158</v>
+      </c>
+      <c r="D53">
+        <v>0.003936192251916304</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Fac_childcare</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>0.005722699411736923</v>
+      </c>
+      <c r="C54">
+        <v>0.00446902860078414</v>
+      </c>
+      <c r="D54">
+        <v>0.003107520198881293</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Immigrants_Dutch_Antilles_Aruba</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0.005551061771142817</v>
+      </c>
+      <c r="C55">
+        <v>0.004125476709464979</v>
+      </c>
+      <c r="D55">
+        <v>0.005179200331468821</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Population</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>0.00554983990559432</v>
+      </c>
+      <c r="C56">
+        <v>0.002874348482199874</v>
+      </c>
+      <c r="D56">
+        <v>0.004454112285063186</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Fac_picnic_table</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>0.005415979661557278</v>
+      </c>
+      <c r="C57">
+        <v>0.008135722618414809</v>
+      </c>
+      <c r="D57">
+        <v>0.006629376424280091</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Business_establishments_total</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>0.005404737428784456</v>
+      </c>
+      <c r="C58">
+        <v>0.004146881811727856</v>
+      </c>
+      <c r="D58">
+        <v>0.003832608245286928</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>O.Q.Government_education_care</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>0.005402718022590977</v>
+      </c>
+      <c r="C59">
+        <v>0.007680507443624312</v>
+      </c>
+      <c r="D59">
+        <v>0.005489952351356951</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>M.N.Business_services</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>0.005324399768970763</v>
+      </c>
+      <c r="C60">
+        <v>0.003867188475492942</v>
+      </c>
+      <c r="D60">
+        <v>0.004764864304951316</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Fac_pitch</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>0.005171151918032639</v>
+      </c>
+      <c r="C61">
+        <v>0.008963386572579351</v>
+      </c>
+      <c r="D61">
+        <v>0.00435052827843381</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Pop_65_plus</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>0.005143240966921175</v>
+      </c>
+      <c r="C62">
+        <v>0.004549297734269925</v>
+      </c>
+      <c r="D62">
+        <v>0.003832608245286928</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Fac_wine</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>0.005124528476393192</v>
+      </c>
+      <c r="C63">
+        <v>0.004045207575979194</v>
+      </c>
+      <c r="D63">
+        <v>0.001864512119328776</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Households_total</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>0.005014972421787736</v>
+      </c>
+      <c r="C64">
+        <v>0.002302832251781083</v>
+      </c>
+      <c r="D64">
+        <v>0.001553760099440646</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Fac_pharmacy</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>0.004998687022164454</v>
+      </c>
+      <c r="C65">
+        <v>0.004521114349623805</v>
+      </c>
+      <c r="D65">
+        <v>0.004039776258545681</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Immigrants_other_total</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>0.004980256820612899</v>
+      </c>
+      <c r="C66">
+        <v>0.00194465354058229</v>
+      </c>
+      <c r="D66">
+        <v>0.002796768178993163</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Fac_sports_centre</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>0.004889515177713232</v>
+      </c>
+      <c r="C67">
+        <v>0.004827920815391695</v>
+      </c>
+      <c r="D67">
+        <v>0.004246944271804433</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Single_households</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>0.004882070771685386</v>
+      </c>
+      <c r="C68">
+        <v>0.005087636056181258</v>
+      </c>
+      <c r="D68">
+        <v>0.004039776258545681</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Fac_drinking_water</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>0.004850537310140621</v>
+      </c>
+      <c r="C69">
+        <v>0.002703107664096865</v>
+      </c>
+      <c r="D69">
+        <v>0.003625440232028175</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Fac_supermarket</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>0.004846927279851542</v>
+      </c>
+      <c r="C70">
+        <v>0.003848637386865116</v>
+      </c>
+      <c r="D70">
+        <v>0.003832608245286928</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Fac_butcher</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>0.004751232208281288</v>
+      </c>
+      <c r="C71">
+        <v>0.001026017901800526</v>
+      </c>
+      <c r="D71">
+        <v>0.003625440232028175</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>highway</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>0.004708198293836842</v>
+      </c>
+      <c r="C72">
+        <v>0.002729507290221079</v>
+      </c>
+      <c r="D72">
+        <v>0.002382432152475658</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Fac_playground</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>0.004673631562953785</v>
+      </c>
+      <c r="C73">
+        <v>0.007072959291063013</v>
+      </c>
+      <c r="D73">
+        <v>0.007665216490573856</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Pop_0_15</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>0.004652254858780903</v>
+      </c>
+      <c r="C74">
+        <v>0.001996382537717574</v>
+      </c>
+      <c r="D74">
+        <v>0.003729024238657551</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Immigrants_Suriname</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>0.004549377464211446</v>
+      </c>
+      <c r="C75">
+        <v>0.004537881679729725</v>
+      </c>
+      <c r="D75">
+        <v>0.004868448311580692</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Fac_cafe</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>0.004545940075917424</v>
+      </c>
+      <c r="C76">
+        <v>0.002505823971574024</v>
+      </c>
+      <c r="D76">
+        <v>0.003936192251916304</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Fac_dentist</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>0.004493303581933767</v>
+      </c>
+      <c r="C77">
+        <v>0.001263257785214069</v>
+      </c>
+      <c r="D77">
+        <v>0.002486016159105034</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Fac_swimming_area</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>0.004371723205517639</v>
+      </c>
+      <c r="C78">
+        <v>0.006763298811660073</v>
+      </c>
+      <c r="D78">
+        <v>0.002693184172363787</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Fac_fast_food</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>0.004322409104213395</v>
+      </c>
+      <c r="C79">
+        <v>0.00288754829526198</v>
+      </c>
+      <c r="D79">
+        <v>0.006111456391133209</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Fac_toilets</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>0.004225678180672795</v>
+      </c>
+      <c r="C80">
+        <v>0.00189970282583025</v>
+      </c>
+      <c r="D80">
+        <v>0.002175264139216905</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Degree_of_urbanity</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>0.004177258489704392</v>
+      </c>
+      <c r="C81">
+        <v>0.003612824510269098</v>
+      </c>
+      <c r="D81">
+        <v>0.003832608245286928</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Fac_fire_station</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>0.004103201908189371</v>
+      </c>
+      <c r="C82">
+        <v>0.003247867516687061</v>
+      </c>
+      <c r="D82">
+        <v>0.003003936192251916</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Pop_15_25</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>0.003951824296006655</v>
+      </c>
+      <c r="C83">
+        <v>0.002683843072060277</v>
+      </c>
+      <c r="D83">
+        <v>0.003107520198881293</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Fac_doctors</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>0.003935204606806024</v>
+      </c>
+      <c r="C84">
+        <v>0.006572436649816094</v>
+      </c>
+      <c r="D84">
+        <v>0.003729024238657551</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Coverage_rate</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>0.003898641349993892</v>
+      </c>
+      <c r="C85">
+        <v>0.01041572276111549</v>
+      </c>
+      <c r="D85">
+        <v>0.005489952351356951</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Fac_books</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>0.003853904787302148</v>
+      </c>
+      <c r="C86">
+        <v>0.0003335628435964853</v>
+      </c>
+      <c r="D86">
+        <v>0.002071680132587528</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Fac_car_repair_parts</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>0.003580863894888122</v>
+      </c>
+      <c r="C87">
+        <v>0.001629641785613631</v>
+      </c>
+      <c r="D87">
+        <v>0.006215040397762586</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>counts_100</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>0.003496089543803853</v>
+      </c>
+      <c r="C88">
+        <v>0.002568612271545127</v>
+      </c>
+      <c r="D88">
+        <v>0.004868448311580692</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Fac_shelter</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>0.003389930762743137</v>
+      </c>
+      <c r="C89">
+        <v>0.002961039146364522</v>
+      </c>
+      <c r="D89">
+        <v>0.002382432152475658</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Fac_chemist</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>0.003168826881943807</v>
+      </c>
+      <c r="C90">
+        <v>0.001940729271834096</v>
+      </c>
+      <c r="D90">
+        <v>0.002486016159105034</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Fac_bakery</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>0.003127040981921464</v>
+      </c>
+      <c r="C91">
+        <v>0.00212195913765978</v>
+      </c>
+      <c r="D91">
+        <v>0.008804640563496996</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Fac_taxi</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>0.003092791306130879</v>
+      </c>
+      <c r="C92">
+        <v>0.003519355563721206</v>
+      </c>
+      <c r="D92">
+        <v>0.001035840066293764</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Fac_pub</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>0.002979051728894759</v>
+      </c>
+      <c r="C93">
+        <v>0.000443799120250297</v>
+      </c>
+      <c r="D93">
+        <v>0.002589600165734411</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Pop_45_65</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>0.002928839354352892</v>
+      </c>
+      <c r="C94">
+        <v>0.002225060380225967</v>
+      </c>
+      <c r="D94">
+        <v>0.001864512119328776</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Fac_bank</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>0.002883514739151305</v>
+      </c>
+      <c r="C95">
+        <v>0.0003100172311073216</v>
+      </c>
+      <c r="D95">
+        <v>0.00290035218562254</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Fac_vending_machine</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>0.002840034808124103</v>
+      </c>
+      <c r="C96">
+        <v>0.00171954321511771</v>
+      </c>
+      <c r="D96">
+        <v>0.002589600165734411</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fac_lighting</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>0.002771212755670932</v>
+      </c>
+      <c r="C97">
+        <v>0.0003924268748193945</v>
+      </c>
+      <c r="D97">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Fac_outdoor_seating</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>0.002392863217734674</v>
+      </c>
+      <c r="C98">
+        <v>0.001738094303745536</v>
+      </c>
+      <c r="D98">
+        <v>0.0008286720530350114</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>0.002335467925901021</v>
+      </c>
+      <c r="C99">
+        <v>0.004144741301501568</v>
+      </c>
+      <c r="D99">
+        <v>0.003521856225398798</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Fac_garden</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>0.00232483127726921</v>
+      </c>
+      <c r="C100">
+        <v>0.00531024911971517</v>
+      </c>
+      <c r="D100">
+        <v>0.00145017609281127</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Fac_driving_school</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>0.002278215115713892</v>
+      </c>
+      <c r="C101">
+        <v>0.0003289250714395288</v>
+      </c>
+      <c r="D101">
+        <v>0.0008286720530350114</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ownership_unknown</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>0.002224585855972081</v>
+      </c>
+      <c r="C102">
+        <v>0.002804068396436764</v>
+      </c>
+      <c r="D102">
+        <v>0.001553760099440646</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Fac_tool_hire</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>0.002198498343075196</v>
+      </c>
+      <c r="C103">
+        <v>0.004003110874862205</v>
+      </c>
+      <c r="D103">
+        <v>0.001346592086181894</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Fac_beauty</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>0.00214333001411927</v>
+      </c>
+      <c r="C104">
+        <v>0.001929669968998277</v>
+      </c>
+      <c r="D104">
+        <v>0.002693184172363787</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>0.002106389084371307</v>
+      </c>
+      <c r="C105">
+        <v>0.001011034330216513</v>
+      </c>
+      <c r="D105">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Fac_optician</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>0.001987905120880303</v>
+      </c>
+      <c r="C106">
+        <v>0.0007894915217957454</v>
+      </c>
+      <c r="D106">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Fac_parking_space</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>0.001981660591575422</v>
+      </c>
+      <c r="C107">
+        <v>0.0003728055310784247</v>
+      </c>
+      <c r="D107">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Fac_electronics</t>
+        </is>
+      </c>
+      <c r="B108">
+        <v>0.001863634084799378</v>
+      </c>
+      <c r="C108">
+        <v>0.002247892489306368</v>
+      </c>
+      <c r="D108">
+        <v>0.001553760099440646</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Fac_car_wash</t>
+        </is>
+      </c>
+      <c r="B109">
+        <v>0.001860396081666602</v>
+      </c>
+      <c r="C109">
+        <v>0.002627476302768036</v>
+      </c>
+      <c r="D109">
+        <v>0.003107520198881293</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Fac_bird_hide</t>
+        </is>
+      </c>
+      <c r="B110">
+        <v>0.001821841350412343</v>
+      </c>
+      <c r="C110">
+        <v>0.001499070661810087</v>
+      </c>
+      <c r="D110">
+        <v>0.001243008079552517</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fac_hairdresser</t>
+        </is>
+      </c>
+      <c r="B111">
+        <v>0.001739670297983323</v>
+      </c>
+      <c r="C111">
+        <v>0.0002661367714684257</v>
+      </c>
+      <c r="D111">
+        <v>0.001968096125958152</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Fac_bus_station</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>0.001725874835705282</v>
+      </c>
+      <c r="C112">
+        <v>0.0003563949526768864</v>
+      </c>
+      <c r="D112">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Fac_hunting_stand</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>0.001665653682644438</v>
+      </c>
+      <c r="C113">
+        <v>0.002358842269368942</v>
+      </c>
+      <c r="D113">
+        <v>0.001139424072923141</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Fac_veterinary</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>0.001658018954417222</v>
+      </c>
+      <c r="C114">
+        <v>0.00219509323705794</v>
+      </c>
+      <c r="D114">
+        <v>0.002278848145846281</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Fac_atm</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>0.00164550523266531</v>
+      </c>
+      <c r="C115">
+        <v>0.0006656986803754455</v>
+      </c>
+      <c r="D115">
+        <v>0.006318624404391962</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Fac_parking_entrance</t>
+        </is>
+      </c>
+      <c r="B116">
+        <v>0.00161715183072658</v>
+      </c>
+      <c r="C116">
+        <v>0.00299992508214208</v>
+      </c>
+      <c r="D116">
+        <v>0.003314688212140046</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Fac_police</t>
+        </is>
+      </c>
+      <c r="B117">
+        <v>0.00160414766902141</v>
+      </c>
+      <c r="C117">
+        <v>0.00547649541395684</v>
+      </c>
+      <c r="D117">
+        <v>0.002071680132587528</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fac_funeral_services</t>
+        </is>
+      </c>
+      <c r="B118">
+        <v>0.001599511592589588</v>
+      </c>
+      <c r="C118">
+        <v>0.006791838948010574</v>
+      </c>
+      <c r="D118">
+        <v>0.002486016159105034</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Fac_lifeboat</t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>0.001555359516652196</v>
+      </c>
+      <c r="C119">
+        <v>0.002404863239234125</v>
+      </c>
+      <c r="D119">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Fac_bicycle</t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>0.001554942174686519</v>
+      </c>
+      <c r="C120">
+        <v>0.001380985847659887</v>
+      </c>
+      <c r="D120">
+        <v>0.004557696291692562</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fac_car_rental</t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>0.00149839077831924</v>
+      </c>
+      <c r="C121">
+        <v>0.0007573838684014313</v>
+      </c>
+      <c r="D121">
+        <v>0.001035840066293764</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Households_with_children</t>
+        </is>
+      </c>
+      <c r="B122">
+        <v>0.001496061894263709</v>
+      </c>
+      <c r="C122">
+        <v>0.003068064657678902</v>
+      </c>
+      <c r="D122">
+        <v>0.00145017609281127</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Fac_studio</t>
+        </is>
+      </c>
+      <c r="B123">
+        <v>0.001490853959794901</v>
+      </c>
+      <c r="C123">
+        <v>0.006673040630451612</v>
+      </c>
+      <c r="D123">
+        <v>0.002486016159105034</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Men</t>
+        </is>
+      </c>
+      <c r="B124">
+        <v>0.001428236321897328</v>
+      </c>
+      <c r="C124">
+        <v>0.0003763730481222374</v>
+      </c>
+      <c r="D124">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Fac_scout_hall</t>
+        </is>
+      </c>
+      <c r="B125">
+        <v>0.001404921035322113</v>
+      </c>
+      <c r="C125">
+        <v>0.006816811567317262</v>
+      </c>
+      <c r="D125">
+        <v>0.001760928112699399</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>R.U.Culture_recreation_other_services</t>
+        </is>
+      </c>
+      <c r="B126">
+        <v>0.001393856793177586</v>
+      </c>
+      <c r="C126">
+        <v>0.003030248977014488</v>
+      </c>
+      <c r="D126">
+        <v>0.002693184172363787</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Fac_alcohol</t>
+        </is>
+      </c>
+      <c r="B127">
+        <v>0.001373882768071261</v>
+      </c>
+      <c r="C127">
+        <v>0.0007734376950985884</v>
+      </c>
+      <c r="D127">
+        <v>0.008597472550238244</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Fac_hoover</t>
+        </is>
+      </c>
+      <c r="B128">
+        <v>0.001351326987415783</v>
+      </c>
+      <c r="C128">
+        <v>0.006823589849700507</v>
+      </c>
+      <c r="D128">
+        <v>0.001864512119328776</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Fac_nursing_home</t>
+        </is>
+      </c>
+      <c r="B129">
+        <v>0.001340020422470964</v>
+      </c>
+      <c r="C129">
+        <v>0.0007909185286132705</v>
+      </c>
+      <c r="D129">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Fac_social_facility</t>
+        </is>
+      </c>
+      <c r="B130">
+        <v>0.00133668094387982</v>
+      </c>
+      <c r="C130">
+        <v>0.001498713910105705</v>
+      </c>
+      <c r="D130">
+        <v>0.001657344106070023</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Fac_nature_reserve</t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>0.001330927003101342</v>
+      </c>
+      <c r="C131">
+        <v>7.955563007702269e-05</v>
+      </c>
+      <c r="D131">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Fac_place_of_worship</t>
+        </is>
+      </c>
+      <c r="B132">
+        <v>0.001323006122995915</v>
+      </c>
+      <c r="C132">
+        <v>0.0009229166592343395</v>
+      </c>
+      <c r="D132">
+        <v>0.002278848145846281</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Rental_properties_total</t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>0.001311461543872024</v>
+      </c>
+      <c r="C133">
+        <v>0.002685626830582183</v>
+      </c>
+      <c r="D133">
+        <v>0.001346592086181894</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Fac_houseware</t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>0.001260029086659406</v>
+      </c>
+      <c r="C134">
+        <v>0.0002946769078189271</v>
+      </c>
+      <c r="D134">
+        <v>0.00145017609281127</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Fac_convenience</t>
+        </is>
+      </c>
+      <c r="B135">
+        <v>0.001255217693915907</v>
+      </c>
+      <c r="C135">
+        <v>0.0001195118209677247</v>
+      </c>
+      <c r="D135">
+        <v>0.001346592086181894</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Fac_variety_store</t>
+        </is>
+      </c>
+      <c r="B136">
+        <v>0.001242444934884836</v>
+      </c>
+      <c r="C136">
+        <v>0.0005576029139479214</v>
+      </c>
+      <c r="D136">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Fac_perfumery</t>
+        </is>
+      </c>
+      <c r="B137">
+        <v>0.001194825458878034</v>
+      </c>
+      <c r="C137">
+        <v>0.0002636395095377568</v>
+      </c>
+      <c r="D137">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Fac_hardware</t>
+        </is>
+      </c>
+      <c r="B138">
+        <v>0.001161853066419213</v>
+      </c>
+      <c r="C138">
+        <v>0.001789109797472057</v>
+      </c>
+      <c r="D138">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Fac_interior_decoration</t>
+        </is>
+      </c>
+      <c r="B139">
+        <v>0.001142790388987314</v>
+      </c>
+      <c r="C139">
+        <v>0.0001006039806355175</v>
+      </c>
+      <c r="D139">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Fac_bed</t>
+        </is>
+      </c>
+      <c r="B140">
+        <v>0.001132314496498922</v>
+      </c>
+      <c r="C140">
+        <v>0.0009650133603513291</v>
+      </c>
+      <c r="D140">
+        <v>0.002071680132587528</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Fac_arts_centre</t>
+        </is>
+      </c>
+      <c r="B141">
+        <v>0.001124842158719724</v>
+      </c>
+      <c r="C141">
+        <v>7.028008576310973e-05</v>
+      </c>
+      <c r="D141">
+        <v>0.001346592086181894</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Fac_park</t>
+        </is>
+      </c>
+      <c r="B142">
+        <v>0.001116875443798914</v>
+      </c>
+      <c r="C142">
+        <v>2.247535737601986e-05</v>
+      </c>
+      <c r="D142">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Fac_carpet</t>
+        </is>
+      </c>
+      <c r="B143">
+        <v>0.001116609572155063</v>
+      </c>
+      <c r="C143">
+        <v>0.0005219277435097946</v>
+      </c>
+      <c r="D143">
+        <v>0.001035840066293764</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Fac_radiotechnics</t>
+        </is>
+      </c>
+      <c r="B144">
+        <v>0.00111161617730834</v>
+      </c>
+      <c r="C144">
+        <v>0.002382744633562487</v>
+      </c>
+      <c r="D144">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Fac_kindergarten</t>
+        </is>
+      </c>
+      <c r="B145">
+        <v>0.00110889914591022</v>
+      </c>
+      <c r="C145">
+        <v>0.001331397360750891</v>
+      </c>
+      <c r="D145">
+        <v>0.001553760099440646</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fac_newsagent</t>
+        </is>
+      </c>
+      <c r="B146">
+        <v>0.001094812480267021</v>
+      </c>
+      <c r="C146">
+        <v>0.002654589432301013</v>
+      </c>
+      <c r="D146">
+        <v>0.001864512119328776</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Fac_bicycle_rental</t>
+        </is>
+      </c>
+      <c r="B147">
+        <v>0.001083486675099862</v>
+      </c>
+      <c r="C147">
+        <v>6.064778974481551e-05</v>
+      </c>
+      <c r="D147">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Fac_ferry_terminal</t>
+        </is>
+      </c>
+      <c r="B148">
+        <v>0.001070126383564956</v>
+      </c>
+      <c r="C148">
+        <v>0.002542212645420914</v>
+      </c>
+      <c r="D148">
+        <v>0.002589600165734411</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Fac_greengrocer</t>
+        </is>
+      </c>
+      <c r="B149">
+        <v>0.001057825715703675</v>
+      </c>
+      <c r="C149">
+        <v>0.002161915328550482</v>
+      </c>
+      <c r="D149">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Fac_car</t>
+        </is>
+      </c>
+      <c r="B150">
+        <v>0.001045996841865891</v>
+      </c>
+      <c r="C150">
+        <v>0.001556864437919852</v>
+      </c>
+      <c r="D150">
+        <v>0.003314688212140046</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Fac_florist</t>
+        </is>
+      </c>
+      <c r="B151">
+        <v>0.001032878055978977</v>
+      </c>
+      <c r="C151">
+        <v>0.002567898768136365</v>
+      </c>
+      <c r="D151">
+        <v>0.00290035218562254</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Fac_doityourself_hardware</t>
+        </is>
+      </c>
+      <c r="B152">
+        <v>0.00103060696687704</v>
+      </c>
+      <c r="C152">
+        <v>0.0002804068396436764</v>
+      </c>
+      <c r="D152">
+        <v>0.002486016159105034</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Fac_ice_rink</t>
+        </is>
+      </c>
+      <c r="B153">
+        <v>0.001028885226980547</v>
+      </c>
+      <c r="C153">
+        <v>0.0007638053990802941</v>
+      </c>
+      <c r="D153">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Fac_garden_centre</t>
+        </is>
+      </c>
+      <c r="B154">
+        <v>0.0009782594476613587</v>
+      </c>
+      <c r="C154">
+        <v>0.005913516251823893</v>
+      </c>
+      <c r="D154">
+        <v>0.003521856225398798</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Fac_vehicle_inspection</t>
+        </is>
+      </c>
+      <c r="B155">
+        <v>0.0009698569677048306</v>
+      </c>
+      <c r="C155">
+        <v>0.0001405601715262195</v>
+      </c>
+      <c r="D155">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Fac_antiques</t>
+        </is>
+      </c>
+      <c r="B156">
+        <v>0.0009451131503357436</v>
+      </c>
+      <c r="C156">
+        <v>4.63777215695648e-05</v>
+      </c>
+      <c r="D156">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Fac_trade</t>
+        </is>
+      </c>
+      <c r="B157">
+        <v>0.0009346667496167307</v>
+      </c>
+      <c r="C157">
+        <v>0.0003499734219980236</v>
+      </c>
+      <c r="D157">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Fac_party</t>
+        </is>
+      </c>
+      <c r="B158">
+        <v>0.000934519959348988</v>
+      </c>
+      <c r="C158">
+        <v>0.0001476952056138448</v>
+      </c>
+      <c r="D158">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Fac_cosmetics</t>
+        </is>
+      </c>
+      <c r="B159">
+        <v>0.0009156502041465061</v>
+      </c>
+      <c r="C159">
+        <v>0.0002197590498988609</v>
+      </c>
+      <c r="D159">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Fac_department_store</t>
+        </is>
+      </c>
+      <c r="B160">
+        <v>0.0009128735206304719</v>
+      </c>
+      <c r="C160">
+        <v>6.350180337986564e-05</v>
+      </c>
+      <c r="D160">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Fac_seafood</t>
+        </is>
+      </c>
+      <c r="B161">
+        <v>0.0008919800506132915</v>
+      </c>
+      <c r="C161">
+        <v>3.852918407317691e-05</v>
+      </c>
+      <c r="D161">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Fac_payment_terminal</t>
+        </is>
+      </c>
+      <c r="B162">
+        <v>0.0008819417060383627</v>
+      </c>
+      <c r="C162">
+        <v>3.888593577755818e-05</v>
+      </c>
+      <c r="D162">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Passenger_cars_total</t>
+        </is>
+      </c>
+      <c r="B163">
+        <v>0.0008733330808424694</v>
+      </c>
+      <c r="C163">
+        <v>0.001753077875329549</v>
+      </c>
+      <c r="D163">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Fac_second_hand</t>
+        </is>
+      </c>
+      <c r="B164">
+        <v>0.0008560000176837747</v>
+      </c>
+      <c r="C164">
+        <v>8.27663954164541e-05</v>
+      </c>
+      <c r="D164">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Fac_marina</t>
+        </is>
+      </c>
+      <c r="B165">
+        <v>0.0008415158445898215</v>
+      </c>
+      <c r="C165">
+        <v>0.00169135983047159</v>
+      </c>
+      <c r="D165">
+        <v>0.001035840066293764</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Fac_tiles</t>
+        </is>
+      </c>
+      <c r="B166">
+        <v>0.0008291965307987809</v>
+      </c>
+      <c r="C166">
+        <v>0.00350365848872843</v>
+      </c>
+      <c r="D166">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Fac_beach_resort</t>
+        </is>
+      </c>
+      <c r="B167">
+        <v>0.0008225946087924278</v>
+      </c>
+      <c r="C167">
+        <v>0.002015290378049781</v>
+      </c>
+      <c r="D167">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Fac_motorcycle</t>
+        </is>
+      </c>
+      <c r="B168">
+        <v>0.0007950128957713653</v>
+      </c>
+      <c r="C168">
+        <v>0.007332674531852576</v>
+      </c>
+      <c r="D168">
+        <v>0.002382432152475658</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Fac_art</t>
+        </is>
+      </c>
+      <c r="B169">
+        <v>0.0007856287187560223</v>
+      </c>
+      <c r="C169">
+        <v>7.313409939815988e-05</v>
+      </c>
+      <c r="D169">
+        <v>0.001346592086181894</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Fac_pet</t>
+        </is>
+      </c>
+      <c r="B170">
+        <v>0.0007787315076230109</v>
+      </c>
+      <c r="C170">
+        <v>0.001750223861694499</v>
+      </c>
+      <c r="D170">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Housing_stock</t>
+        </is>
+      </c>
+      <c r="B171">
+        <v>0.0007707391638346038</v>
+      </c>
+      <c r="C171">
+        <v>0.0002236833186470548</v>
+      </c>
+      <c r="D171">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Fac_sauna</t>
+        </is>
+      </c>
+      <c r="B172">
+        <v>0.0007689908293450682</v>
+      </c>
+      <c r="C172">
+        <v>3.246440509869536e-05</v>
+      </c>
+      <c r="D172">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Fac_horse_riding</t>
+        </is>
+      </c>
+      <c r="B173">
+        <v>0.0007645651324872574</v>
+      </c>
+      <c r="C173">
+        <v>9.989047722675496e-06</v>
+      </c>
+      <c r="D173">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Fac_religion</t>
+        </is>
+      </c>
+      <c r="B174">
+        <v>0.0007432390917569872</v>
+      </c>
+      <c r="C174">
+        <v>0.00521178564930594</v>
+      </c>
+      <c r="D174">
+        <v>0.001657344106070023</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Fac_fitness_centre</t>
+        </is>
+      </c>
+      <c r="B175">
+        <v>0.0007230927960884683</v>
+      </c>
+      <c r="C175">
+        <v>0.0001587545084496641</v>
+      </c>
+      <c r="D175">
+        <v>0.001346592086181894</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Fac_courthouse</t>
+        </is>
+      </c>
+      <c r="B176">
+        <v>0.0007088658031093556</v>
+      </c>
+      <c r="C176">
+        <v>0.001246133703403768</v>
+      </c>
+      <c r="D176">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
+      <c r="B177">
+        <v>0.0006999072138692644</v>
+      </c>
+      <c r="C177">
+        <v>0.000463777215695648</v>
+      </c>
+      <c r="D177">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Fac_vacuum_cleaner</t>
+        </is>
+      </c>
+      <c r="B178">
+        <v>0.0006987559205648741</v>
+      </c>
+      <c r="C178">
+        <v>0.00355431723075057</v>
+      </c>
+      <c r="D178">
+        <v>0.001139424072923141</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Fac_post_office</t>
+        </is>
+      </c>
+      <c r="B179">
+        <v>0.0006845980140984136</v>
+      </c>
+      <c r="C179">
+        <v>0.002419133307409376</v>
+      </c>
+      <c r="D179">
+        <v>0.001035840066293764</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Fac_furniture</t>
+        </is>
+      </c>
+      <c r="B180">
+        <v>0.0006803959941111358</v>
+      </c>
+      <c r="C180">
+        <v>0.0003339195953008666</v>
+      </c>
+      <c r="D180">
+        <v>0.001657344106070023</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Fac_massage</t>
+        </is>
+      </c>
+      <c r="B181">
+        <v>0.000656429065719808</v>
+      </c>
+      <c r="C181">
+        <v>1.783758521906338e-05</v>
+      </c>
+      <c r="D181">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Fac_casino</t>
+        </is>
+      </c>
+      <c r="B182">
+        <v>0.0006130864162790372</v>
+      </c>
+      <c r="C182">
+        <v>0.002386312150606299</v>
+      </c>
+      <c r="D182">
+        <v>0.00145017609281127</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Fac_beergarden</t>
+        </is>
+      </c>
+      <c r="B183">
+        <v>0.0005934006973615325</v>
+      </c>
+      <c r="C183">
+        <v>0.0004252480316224711</v>
+      </c>
+      <c r="D183">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Fac_bar</t>
+        </is>
+      </c>
+      <c r="B184">
+        <v>0.0005671675456387826</v>
+      </c>
+      <c r="C184">
+        <v>0.0002336723663697303</v>
+      </c>
+      <c r="D184">
+        <v>0.002486016159105034</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Fac_clinic</t>
+        </is>
+      </c>
+      <c r="B185">
+        <v>0.0005617084111242404</v>
+      </c>
+      <c r="C185">
+        <v>0.01301358867241988</v>
+      </c>
+      <c r="D185">
+        <v>0.004143360265175057</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Fac_delicatessen_store</t>
+        </is>
+      </c>
+      <c r="B186">
+        <v>0.0005535675684769176</v>
+      </c>
+      <c r="C186">
+        <v>0.000121295579489631</v>
+      </c>
+      <c r="D186">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Fac_miniature_golf</t>
+        </is>
+      </c>
+      <c r="B187">
+        <v>0.0005523154311500271</v>
+      </c>
+      <c r="C187">
+        <v>0.003454783505228196</v>
+      </c>
+      <c r="D187">
+        <v>0.001243008079552517</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Fac_farm</t>
+        </is>
+      </c>
+      <c r="B188">
+        <v>0.0005475937765864034</v>
+      </c>
+      <c r="C188">
+        <v>0.0007177844292151106</v>
+      </c>
+      <c r="D188">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Fac_clocks</t>
+        </is>
+      </c>
+      <c r="B189">
+        <v>0.0005473985143299452</v>
+      </c>
+      <c r="C189">
+        <v>0.002799430624279807</v>
+      </c>
+      <c r="D189">
+        <v>0.001760928112699399</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Fac_sport</t>
+        </is>
+      </c>
+      <c r="B190">
+        <v>0.0005455633016935851</v>
+      </c>
+      <c r="C190">
+        <v>0.002440181657967871</v>
+      </c>
+      <c r="D190">
+        <v>0.0008286720530350114</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Fac_canteen</t>
+        </is>
+      </c>
+      <c r="B191">
+        <v>0.0005345602345417133</v>
+      </c>
+      <c r="C191">
+        <v>1.748083351468212e-05</v>
+      </c>
+      <c r="D191">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Fac_escape_game</t>
+        </is>
+      </c>
+      <c r="B192">
+        <v>0.0005249175773965067</v>
+      </c>
+      <c r="C192">
+        <v>0.0002857581152093954</v>
+      </c>
+      <c r="D192">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Fac_shower</t>
+        </is>
+      </c>
+      <c r="B193">
+        <v>0.0005198415758808929</v>
+      </c>
+      <c r="C193">
+        <v>0.0001819433692344465</v>
+      </c>
+      <c r="D193">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Fac_fountain</t>
+        </is>
+      </c>
+      <c r="B194">
+        <v>0.0005121918789092687</v>
+      </c>
+      <c r="C194">
+        <v>0.001612160952098949</v>
+      </c>
+      <c r="D194">
+        <v>0.00145017609281127</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Fac_sewing</t>
+        </is>
+      </c>
+      <c r="B195">
+        <v>0.0005049840756156136</v>
+      </c>
+      <c r="C195">
+        <v>3.710217725565184e-05</v>
+      </c>
+      <c r="D195">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Fac_chocolate</t>
+        </is>
+      </c>
+      <c r="B196">
+        <v>0.0004889970851550445</v>
+      </c>
+      <c r="C196">
+        <v>0.0004134752253778893</v>
+      </c>
+      <c r="D196">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Fac_sports_hall</t>
+        </is>
+      </c>
+      <c r="B197">
+        <v>0.0004575653962149392</v>
+      </c>
+      <c r="C197">
+        <v>0.003589278897779934</v>
+      </c>
+      <c r="D197">
+        <v>0.001139424072923141</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Fac_travel_agency</t>
+        </is>
+      </c>
+      <c r="B198">
+        <v>0.0004511936140109477</v>
+      </c>
+      <c r="C198">
+        <v>0.001418088024915539</v>
+      </c>
+      <c r="D198">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Fac_swingerclub</t>
+        </is>
+      </c>
+      <c r="B199">
+        <v>0.0004203462632520486</v>
+      </c>
+      <c r="C199">
+        <v>0.0001344953925517379</v>
+      </c>
+      <c r="D199">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Fac_outdoor</t>
+        </is>
+      </c>
+      <c r="B200">
+        <v>0.0004199083439057213</v>
+      </c>
+      <c r="C200">
+        <v>3.175090168993282e-05</v>
+      </c>
+      <c r="D200">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Fac_stationery</t>
+        </is>
+      </c>
+      <c r="B201">
+        <v>0.0004154541581472632</v>
+      </c>
+      <c r="C201">
+        <v>0.001132329909706144</v>
+      </c>
+      <c r="D201">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Fac_wholesale</t>
+        </is>
+      </c>
+      <c r="B202">
+        <v>0.0003893611480439953</v>
+      </c>
+      <c r="C202">
+        <v>0.000146624950500701</v>
+      </c>
+      <c r="D202">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Fac_waste_transfer_station</t>
+        </is>
+      </c>
+      <c r="B203">
+        <v>0.0003723815403984177</v>
+      </c>
+      <c r="C203">
+        <v>0.001730959269657911</v>
+      </c>
+      <c r="D203">
+        <v>0.001035840066293764</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Fac_dog_park</t>
+        </is>
+      </c>
+      <c r="B204">
+        <v>0.0003489353980253133</v>
+      </c>
+      <c r="C204">
+        <v>0.0004206102594655146</v>
+      </c>
+      <c r="D204">
+        <v>0.001035840066293764</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Fac_caravan</t>
+        </is>
+      </c>
+      <c r="B205">
+        <v>0.0003419730747112915</v>
+      </c>
+      <c r="C205">
+        <v>0.001338532394838516</v>
+      </c>
+      <c r="D205">
+        <v>0.0009322560596643878</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Fac_medical_supply</t>
+        </is>
+      </c>
+      <c r="B206">
+        <v>0.0003394323253502931</v>
+      </c>
+      <c r="C206">
+        <v>5.351275565719015e-06</v>
+      </c>
+      <c r="D206">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Fac_copyshop</t>
+        </is>
+      </c>
+      <c r="B207">
+        <v>0.0003317346763959624</v>
+      </c>
+      <c r="C207">
+        <v>5.529651417909649e-05</v>
+      </c>
+      <c r="D207">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Passenger_cars_fuel_gasoline</t>
+        </is>
+      </c>
+      <c r="B208">
+        <v>0.0003166859996357258</v>
+      </c>
+      <c r="C208">
+        <v>0.001197258719903534</v>
+      </c>
+      <c r="D208">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Fac_fitness_station</t>
+        </is>
+      </c>
+      <c r="B209">
+        <v>0.0003152369657477767</v>
+      </c>
+      <c r="C209">
+        <v>0.001161583549465408</v>
+      </c>
+      <c r="D209">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Fac_window_blind_curtain</t>
+        </is>
+      </c>
+      <c r="B210">
+        <v>0.0003051822409835578</v>
+      </c>
+      <c r="C210">
+        <v>0.002009939102484062</v>
+      </c>
+      <c r="D210">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
           <t>Fac_theatre</t>
         </is>
       </c>
-      <c r="B38">
-        <v>0.006595060448099116</v>
-      </c>
-      <c r="C38">
-        <v>0.01</v>
-      </c>
-      <c r="D38">
-        <v>0.01</v>
+      <c r="B211">
+        <v>0.0002849007437526443</v>
+      </c>
+      <c r="C211">
+        <v>0.003405908521727963</v>
+      </c>
+      <c r="D211">
+        <v>0.001346592086181894</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Fac_indoor_play</t>
+        </is>
+      </c>
+      <c r="B212">
+        <v>0.0002680449718238313</v>
+      </c>
+      <c r="C212">
+        <v>1.534032328839451e-05</v>
+      </c>
+      <c r="D212">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Fac_photo</t>
+        </is>
+      </c>
+      <c r="B213">
+        <v>0.0002658969384296453</v>
+      </c>
+      <c r="C213">
+        <v>0.0004823283043234739</v>
+      </c>
+      <c r="D213">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Fac_bbq</t>
+        </is>
+      </c>
+      <c r="B214">
+        <v>0.0002658389577596184</v>
+      </c>
+      <c r="C214">
+        <v>0.001166578073326745</v>
+      </c>
+      <c r="D214">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Fac_toys</t>
+        </is>
+      </c>
+      <c r="B215">
+        <v>0.0002601724894205471</v>
+      </c>
+      <c r="C215">
+        <v>4.245345282137086e-05</v>
+      </c>
+      <c r="D215">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Fac_slipway</t>
+        </is>
+      </c>
+      <c r="B216">
+        <v>0.0002433691638120916</v>
+      </c>
+      <c r="C216">
+        <v>0.001500497668627612</v>
+      </c>
+      <c r="D216">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Fac_compressed_air</t>
+        </is>
+      </c>
+      <c r="B217">
+        <v>0.0002348939201575606</v>
+      </c>
+      <c r="C217">
+        <v>4.780472838708987e-05</v>
+      </c>
+      <c r="D217">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Fac_townhall</t>
+        </is>
+      </c>
+      <c r="B218">
+        <v>0.0002274538413225775</v>
+      </c>
+      <c r="C218">
+        <v>0.0008308747195039725</v>
+      </c>
+      <c r="D218">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Fac_tailor_dry_cleaning</t>
+        </is>
+      </c>
+      <c r="B219">
+        <v>0.0002245996397678848</v>
+      </c>
+      <c r="C219">
+        <v>6.350180337986564e-05</v>
+      </c>
+      <c r="D219">
+        <v>0.0008286720530350114</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Fac_trolley_bay</t>
+        </is>
+      </c>
+      <c r="B220">
+        <v>0.0002243954816943404</v>
+      </c>
+      <c r="C220">
+        <v>0.00268491332717342</v>
+      </c>
+      <c r="D220">
+        <v>0.0008286720530350114</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Fac_fruit</t>
+        </is>
+      </c>
+      <c r="B221">
+        <v>0.0002205394885629053</v>
+      </c>
+      <c r="C221">
+        <v>0.006598836275940308</v>
+      </c>
+      <c r="D221">
+        <v>0.001864512119328776</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Fac_no</t>
+        </is>
+      </c>
+      <c r="B222">
+        <v>0.0002170576397550965</v>
+      </c>
+      <c r="C222">
+        <v>0.01002044187266105</v>
+      </c>
+      <c r="D222">
+        <v>0.002589600165734411</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Fac_nutrition_supplements</t>
+        </is>
+      </c>
+      <c r="B223">
+        <v>0.0002067482977627967</v>
+      </c>
+      <c r="C223">
+        <v>0.001151951253447113</v>
+      </c>
+      <c r="D223">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Fac_binoculars</t>
+        </is>
+      </c>
+      <c r="B224">
+        <v>0.0001948505231287933</v>
+      </c>
+      <c r="C224">
+        <v>0.0005561759071303963</v>
+      </c>
+      <c r="D224">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Fac_adult_gaming_centre</t>
+        </is>
+      </c>
+      <c r="B225">
+        <v>0.0001946110975048386</v>
+      </c>
+      <c r="C225">
+        <v>7.848537496387889e-06</v>
+      </c>
+      <c r="D225">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Fac_video</t>
+        </is>
+      </c>
+      <c r="B226">
+        <v>0.000191916314935255</v>
+      </c>
+      <c r="C226">
+        <v>0.001945723795695434</v>
+      </c>
+      <c r="D226">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Fac_pastry</t>
+        </is>
+      </c>
+      <c r="B227">
+        <v>0.000184683569924801</v>
+      </c>
+      <c r="C227">
+        <v>0.001123767868800993</v>
+      </c>
+      <c r="D227">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Fac_general</t>
+        </is>
+      </c>
+      <c r="B228">
+        <v>0.0001773848398661069</v>
+      </c>
+      <c r="C228">
+        <v>0.001547588893605939</v>
+      </c>
+      <c r="D228">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Fac_events</t>
+        </is>
+      </c>
+      <c r="B229">
+        <v>0.0001720264193725628</v>
+      </c>
+      <c r="C229">
+        <v>7.491785792006621e-06</v>
+      </c>
+      <c r="D229">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Fac_crafts</t>
+        </is>
+      </c>
+      <c r="B230">
+        <v>0.0001716350591357029</v>
+      </c>
+      <c r="C230">
+        <v>0.0001184415658545809</v>
+      </c>
+      <c r="D230">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Fac_gift</t>
+        </is>
+      </c>
+      <c r="B231">
+        <v>0.000169928120838829</v>
+      </c>
+      <c r="C231">
+        <v>0.0002779095777130075</v>
+      </c>
+      <c r="D231">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Fac_sport_centre</t>
+        </is>
+      </c>
+      <c r="B232">
+        <v>0.0001599583241989</v>
+      </c>
+      <c r="C232">
+        <v>0.002803711644732383</v>
+      </c>
+      <c r="D232">
+        <v>0.000725088046405635</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Fac_shoes</t>
+        </is>
+      </c>
+      <c r="B233">
+        <v>0.0001564009630898967</v>
+      </c>
+      <c r="C233">
+        <v>2.925363975926395e-05</v>
+      </c>
+      <c r="D233">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Fac_bodytec</t>
+        </is>
+      </c>
+      <c r="B234">
+        <v>0.0001456814477861896</v>
+      </c>
+      <c r="C234">
+        <v>0.0003995619089070198</v>
+      </c>
+      <c r="D234">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Fac_churchbell</t>
+        </is>
+      </c>
+      <c r="B235">
+        <v>0.0001263319406111037</v>
+      </c>
+      <c r="C235">
+        <v>0.002004587826918343</v>
+      </c>
+      <c r="D235">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Fac_sports</t>
+        </is>
+      </c>
+      <c r="B236">
+        <v>0.0001247273970689361</v>
+      </c>
+      <c r="C236">
+        <v>9.453920166103593e-05</v>
+      </c>
+      <c r="D236">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Fac_baby</t>
+        </is>
+      </c>
+      <c r="B237">
+        <v>0.0001192471465960914</v>
+      </c>
+      <c r="C237">
+        <v>3.674542555127057e-05</v>
+      </c>
+      <c r="D237">
+        <v>0.001035840066293764</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Fac_health_food</t>
+        </is>
+      </c>
+      <c r="B238">
+        <v>0.0001187177526212512</v>
+      </c>
+      <c r="C238">
+        <v>2.21186056716386e-05</v>
+      </c>
+      <c r="D238">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Fac_bicycle_repair</t>
+        </is>
+      </c>
+      <c r="B239">
+        <v>0.0001064914734767512</v>
+      </c>
+      <c r="C239">
+        <v>1.783758521906338e-05</v>
+      </c>
+      <c r="D239">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Fac_resort</t>
+        </is>
+      </c>
+      <c r="B240">
+        <v>0.0001056486273082166</v>
+      </c>
+      <c r="C240">
+        <v>0.001699565119672359</v>
+      </c>
+      <c r="D240">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Fac_computer</t>
+        </is>
+      </c>
+      <c r="B241">
+        <v>0.0001013367281940285</v>
+      </c>
+      <c r="C241">
+        <v>5.458301077033395e-05</v>
+      </c>
+      <c r="D241">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Fac_basis_school</t>
+        </is>
+      </c>
+      <c r="B242">
+        <v>9.703786637335702e-05</v>
+      </c>
+      <c r="C242">
+        <v>0.0004009889157245449</v>
+      </c>
+      <c r="D242">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Fac_library</t>
+        </is>
+      </c>
+      <c r="B243">
+        <v>9.701360252153444e-05</v>
+      </c>
+      <c r="C243">
+        <v>2.711312953297634e-05</v>
+      </c>
+      <c r="D243">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Fac_camera</t>
+        </is>
+      </c>
+      <c r="B244">
+        <v>8.005718157247462e-05</v>
+      </c>
+      <c r="C244">
+        <v>4.63777215695648e-06</v>
+      </c>
+      <c r="D244">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Fac_public_building</t>
+        </is>
+      </c>
+      <c r="B245">
+        <v>7.696325724753625e-05</v>
+      </c>
+      <c r="C245">
+        <v>0.007217086979633045</v>
+      </c>
+      <c r="D245">
+        <v>0.001864512119328776</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Fac_storage_rental</t>
+        </is>
+      </c>
+      <c r="B246">
+        <v>7.594544762854585e-05</v>
+      </c>
+      <c r="C246">
+        <v>1.248630965334437e-05</v>
+      </c>
+      <c r="D246">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Fac_piano</t>
+        </is>
+      </c>
+      <c r="B247">
+        <v>7.476680757956418e-05</v>
+      </c>
+      <c r="C247">
+        <v>0.001202966747173635</v>
+      </c>
+      <c r="D247">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Fac_scooter</t>
+        </is>
+      </c>
+      <c r="B248">
+        <v>7.216432143370452e-05</v>
+      </c>
+      <c r="C248">
+        <v>3.924268748193945e-06</v>
+      </c>
+      <c r="D248">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Fac_brewing_supplies</t>
+        </is>
+      </c>
+      <c r="B249">
+        <v>6.896020226392167e-05</v>
+      </c>
+      <c r="C249">
+        <v>0.005187169781703632</v>
+      </c>
+      <c r="D249">
+        <v>0.001346592086181894</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Fac_bathroom_furnishing</t>
+        </is>
+      </c>
+      <c r="B250">
+        <v>6.861452826929954e-05</v>
+      </c>
+      <c r="C250">
+        <v>0.0001534032328839451</v>
+      </c>
+      <c r="D250">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Fac_telephone</t>
+        </is>
+      </c>
+      <c r="B251">
+        <v>6.745321556341047e-05</v>
+      </c>
+      <c r="C251">
+        <v>0.004507201033152936</v>
+      </c>
+      <c r="D251">
+        <v>0.001243008079552517</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Fac_music</t>
+        </is>
+      </c>
+      <c r="B252">
+        <v>6.468294855009714e-05</v>
+      </c>
+      <c r="C252">
+        <v>0.001260403771579019</v>
+      </c>
+      <c r="D252">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Fac_ice_cream</t>
+        </is>
+      </c>
+      <c r="B253">
+        <v>5.585954694366795e-05</v>
+      </c>
+      <c r="C253">
+        <v>0.0002668502748771882</v>
+      </c>
+      <c r="D253">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Fac_yes</t>
+        </is>
+      </c>
+      <c r="B254">
+        <v>5.56786916394113e-05</v>
+      </c>
+      <c r="C254">
+        <v>3.74589289600331e-05</v>
+      </c>
+      <c r="D254">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Fac_kitchen</t>
+        </is>
+      </c>
+      <c r="B255">
+        <v>5.182080884328199e-05</v>
+      </c>
+      <c r="C255">
+        <v>6.243154826672184e-05</v>
+      </c>
+      <c r="D255">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Fac_security</t>
+        </is>
+      </c>
+      <c r="B256">
+        <v>5.170613823242966e-05</v>
+      </c>
+      <c r="C256">
+        <v>0.0007837834945256451</v>
+      </c>
+      <c r="D256">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Fac_car_sharing</t>
+        </is>
+      </c>
+      <c r="B257">
+        <v>4.792224950566441e-05</v>
+      </c>
+      <c r="C257">
+        <v>2.176185396725733e-05</v>
+      </c>
+      <c r="D257">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Fac_bandstand</t>
+        </is>
+      </c>
+      <c r="B258">
+        <v>4.50095519178464e-05</v>
+      </c>
+      <c r="C258">
+        <v>0.002760901440206631</v>
+      </c>
+      <c r="D258">
+        <v>0.0008286720530350114</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Fac_tattoo</t>
+        </is>
+      </c>
+      <c r="B259">
+        <v>4.305913473589246e-05</v>
+      </c>
+      <c r="C259">
+        <v>5.351275565719015e-05</v>
+      </c>
+      <c r="D259">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Fac_hearing_aids</t>
+        </is>
+      </c>
+      <c r="B260">
+        <v>4.285826384319204e-05</v>
+      </c>
+      <c r="C260">
+        <v>0.0004127617219691267</v>
+      </c>
+      <c r="D260">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Fac_public_bookcase</t>
+        </is>
+      </c>
+      <c r="B261">
+        <v>3.642334269527876e-05</v>
+      </c>
+      <c r="C261">
+        <v>0.000322503540760666</v>
+      </c>
+      <c r="D261">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Fac_grit_bin</t>
+        </is>
+      </c>
+      <c r="B262">
+        <v>3.399710144325479e-05</v>
+      </c>
+      <c r="C262">
+        <v>6.778282383244086e-06</v>
+      </c>
+      <c r="D262">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Fac_estate_agent</t>
+        </is>
+      </c>
+      <c r="B263">
+        <v>3.280160530662638e-05</v>
+      </c>
+      <c r="C263">
+        <v>7.135034087625353e-06</v>
+      </c>
+      <c r="D263">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Fac_telecommunication</t>
+        </is>
+      </c>
+      <c r="B264">
+        <v>3.279448076000913e-05</v>
+      </c>
+      <c r="C264">
+        <v>0.004806872464833201</v>
+      </c>
+      <c r="D264">
+        <v>0.001243008079552517</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Fac_photography</t>
+        </is>
+      </c>
+      <c r="B265">
+        <v>2.889644374985615e-05</v>
+      </c>
+      <c r="C265">
+        <v>0.003207911325796359</v>
+      </c>
+      <c r="D265">
+        <v>0.0008286720530350114</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Fac_animal_shelter</t>
+        </is>
+      </c>
+      <c r="B266">
+        <v>2.842946210339809e-05</v>
+      </c>
+      <c r="C266">
+        <v>9.27554431391296e-06</v>
+      </c>
+      <c r="D266">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Fac_cheese</t>
+        </is>
+      </c>
+      <c r="B267">
+        <v>2.601621403723817e-05</v>
+      </c>
+      <c r="C267">
+        <v>2.604287441983254e-05</v>
+      </c>
+      <c r="D267">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Fac_amusement_arcade</t>
+        </is>
+      </c>
+      <c r="B268">
+        <v>2.483347197656778e-05</v>
+      </c>
+      <c r="C268">
+        <v>0.0003264278095088599</v>
+      </c>
+      <c r="D268">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Fac_cannabis</t>
+        </is>
+      </c>
+      <c r="B269">
+        <v>2.468535151488197e-05</v>
+      </c>
+      <c r="C269">
+        <v>3.603192214250804e-05</v>
+      </c>
+      <c r="D269">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Fac_military_surplus</t>
+        </is>
+      </c>
+      <c r="B270">
+        <v>2.134925760570818e-05</v>
+      </c>
+      <c r="C270">
+        <v>0.0007773619638467823</v>
+      </c>
+      <c r="D270">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Fac_post_depot</t>
+        </is>
+      </c>
+      <c r="B271">
+        <v>1.897121092847974e-05</v>
+      </c>
+      <c r="C271">
+        <v>0.0003164387617861844</v>
+      </c>
+      <c r="D271">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Fac_water_park</t>
+        </is>
+      </c>
+      <c r="B272">
+        <v>1.654869561236997e-05</v>
+      </c>
+      <c r="C272">
+        <v>4.994523861337748e-06</v>
+      </c>
+      <c r="D272">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Fac_building_materials</t>
+        </is>
+      </c>
+      <c r="B273">
+        <v>1.557434479916266e-05</v>
+      </c>
+      <c r="C273">
+        <v>8.205289200769157e-06</v>
+      </c>
+      <c r="D273">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Fac_marketplace</t>
+        </is>
+      </c>
+      <c r="B274">
+        <v>1.536917921397547e-05</v>
+      </c>
+      <c r="C274">
+        <v>4.74479766827086e-05</v>
+      </c>
+      <c r="D274">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Fac_hairdresser_supply</t>
+        </is>
+      </c>
+      <c r="B275">
+        <v>1.304443895632951e-05</v>
+      </c>
+      <c r="C275">
+        <v>5.708027270100283e-06</v>
+      </c>
+      <c r="D275">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Fac_jewelry</t>
+        </is>
+      </c>
+      <c r="B276">
+        <v>1.224356934430628e-05</v>
+      </c>
+      <c r="C276">
+        <v>4.281020452575212e-06</v>
+      </c>
+      <c r="D276">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Fac_track</t>
+        </is>
+      </c>
+      <c r="B277">
+        <v>1.089848906836345e-05</v>
+      </c>
+      <c r="C277">
+        <v>0.0002493694413625061</v>
+      </c>
+      <c r="D277">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Fac_mobile_phone</t>
+        </is>
+      </c>
+      <c r="B278">
+        <v>1.065701127783671e-05</v>
+      </c>
+      <c r="C278">
+        <v>3.567517043812677e-05</v>
+      </c>
+      <c r="D278">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Fac_vacant</t>
+        </is>
+      </c>
+      <c r="B279">
+        <v>1.036628961467444e-05</v>
+      </c>
+      <c r="C279">
+        <v>6.06477897448155e-06</v>
+      </c>
+      <c r="D279">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Fac_currency_exchange</t>
+        </is>
+      </c>
+      <c r="B280">
+        <v>1.034893325338937e-05</v>
+      </c>
+      <c r="C280">
+        <v>3.924268748193945e-06</v>
+      </c>
+      <c r="D280">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Fac_college</t>
+        </is>
+      </c>
+      <c r="B281">
+        <v>1.003548454187816e-05</v>
+      </c>
+      <c r="C281">
+        <v>0.0007812862325949762</v>
+      </c>
+      <c r="D281">
+        <v>0.0004143360265175057</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Fac_tyres</t>
+        </is>
+      </c>
+      <c r="B282">
+        <v>8.862384646204434e-06</v>
+      </c>
+      <c r="C282">
+        <v>0.002402722729007838</v>
+      </c>
+      <c r="D282">
+        <v>0.0006215040397762585</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Fac_ticket</t>
+        </is>
+      </c>
+      <c r="B283">
+        <v>8.73320435874915e-06</v>
+      </c>
+      <c r="C283">
+        <v>0.0007905617769088892</v>
+      </c>
+      <c r="D283">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Fac_rental</t>
+        </is>
+      </c>
+      <c r="B284">
+        <v>8.611661659554137e-06</v>
+      </c>
+      <c r="C284">
+        <v>0.001202966747173635</v>
+      </c>
+      <c r="D284">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Fac_bag</t>
+        </is>
+      </c>
+      <c r="B285">
+        <v>8.4787571772762e-06</v>
+      </c>
+      <c r="C285">
+        <v>7.135034087625353e-06</v>
+      </c>
+      <c r="D285">
+        <v>0.0003107520198881293</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Fac_music_school</t>
+        </is>
+      </c>
+      <c r="B286">
+        <v>8.302339915377175e-06</v>
+      </c>
+      <c r="C286">
+        <v>0.000222613063533911</v>
+      </c>
+      <c r="D286">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Fac_fixme</t>
+        </is>
+      </c>
+      <c r="B287">
+        <v>8.057594676377392e-06</v>
+      </c>
+      <c r="C287">
+        <v>0.002003517571805199</v>
+      </c>
+      <c r="D287">
+        <v>0.0005179200331468821</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Fac_bait</t>
+        </is>
+      </c>
+      <c r="B288">
+        <v>7.706419412825247e-06</v>
+      </c>
+      <c r="C288">
+        <v>1.427006817525071e-06</v>
+      </c>
+      <c r="D288">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Fac_photo_booth</t>
+        </is>
+      </c>
+      <c r="B289">
+        <v>7.518198130589934e-06</v>
+      </c>
+      <c r="C289">
+        <v>0.0008019778314490897</v>
+      </c>
+      <c r="D289">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Fac_boat_rental</t>
+        </is>
+      </c>
+      <c r="B290">
+        <v>7.423743914073336e-06</v>
+      </c>
+      <c r="C290">
+        <v>1.034579942705676e-05</v>
+      </c>
+      <c r="D290">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Fac_3d_printing</t>
+        </is>
+      </c>
+      <c r="B291">
+        <v>6.43695474284216e-06</v>
+      </c>
+      <c r="C291">
+        <v>0.0008019778314490897</v>
+      </c>
+      <c r="D291">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Fac_hospital</t>
+        </is>
+      </c>
+      <c r="B292">
+        <v>5.958768591904406e-06</v>
+      </c>
+      <c r="C292">
+        <v>1.997809544535099e-05</v>
+      </c>
+      <c r="D292">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Fac_musical_instrument</t>
+        </is>
+      </c>
+      <c r="B293">
+        <v>5.15908640431738e-06</v>
+      </c>
+      <c r="C293">
+        <v>7.491785792006621e-06</v>
+      </c>
+      <c r="D293">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Fac_confectionery</t>
+        </is>
+      </c>
+      <c r="B294">
+        <v>4.720463657004428e-06</v>
+      </c>
+      <c r="C294">
+        <v>8.205289200769157e-06</v>
+      </c>
+      <c r="D294">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Fac_fablab</t>
+        </is>
+      </c>
+      <c r="B295">
+        <v>4.369882976216163e-06</v>
+      </c>
+      <c r="C295">
+        <v>0.0008019778314490897</v>
+      </c>
+      <c r="D295">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Fac_nightclub</t>
+        </is>
+      </c>
+      <c r="B296">
+        <v>3.757122346023351e-06</v>
+      </c>
+      <c r="C296">
+        <v>3.210765339431409e-06</v>
+      </c>
+      <c r="D296">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Fac_money_lender</t>
+        </is>
+      </c>
+      <c r="B297">
+        <v>3.341419908221244e-06</v>
+      </c>
+      <c r="C297">
+        <v>0.0003745892896003311</v>
+      </c>
+      <c r="D297">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Fac_common</t>
+        </is>
+      </c>
+      <c r="B298">
+        <v>3.250242425999286e-06</v>
+      </c>
+      <c r="C298">
+        <v>0.0008012643280403272</v>
+      </c>
+      <c r="D298">
+        <v>0.0002071680132587529</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Fac_food_court</t>
+        </is>
+      </c>
+      <c r="B299">
+        <v>3.186227132664638e-06</v>
+      </c>
+      <c r="C299">
+        <v>0.0003075199691766527</v>
+      </c>
+      <c r="D299">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Fac_charity</t>
+        </is>
+      </c>
+      <c r="B300">
+        <v>1.566154214610431e-06</v>
+      </c>
+      <c r="C300">
+        <v>2.854013635050142e-06</v>
+      </c>
+      <c r="D300">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Fac_leather</t>
+        </is>
+      </c>
+      <c r="B301">
+        <v>1.340438525874012e-06</v>
+      </c>
+      <c r="C301">
+        <v>0.0002975309214539773</v>
+      </c>
+      <c r="D301">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Fac_sport_school</t>
+        </is>
+      </c>
+      <c r="B302">
+        <v>1.325323529775958e-06</v>
+      </c>
+      <c r="C302">
+        <v>1.31998130621069e-05</v>
+      </c>
+      <c r="D302">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Fac_garden_furniture</t>
+        </is>
+      </c>
+      <c r="B303">
+        <v>1.291056816824205e-06</v>
+      </c>
+      <c r="C303">
+        <v>3.567517043812677e-06</v>
+      </c>
+      <c r="D303">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Fac_chandler</t>
+        </is>
+      </c>
+      <c r="B304">
+        <v>9.091565832577563e-07</v>
+      </c>
+      <c r="C304">
+        <v>0.0003835080822098627</v>
+      </c>
+      <c r="D304">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Fac_bowling_alley</t>
+        </is>
+      </c>
+      <c r="B305">
+        <v>6.04051436357065e-07</v>
+      </c>
+      <c r="C305">
+        <v>2.854013635050142e-06</v>
+      </c>
+      <c r="D305">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Fac_waiting_room</t>
+        </is>
+      </c>
+      <c r="B306">
+        <v>5.571656908605313e-07</v>
+      </c>
+      <c r="C306">
+        <v>9.632296018294228e-06</v>
+      </c>
+      <c r="D306">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Fac_games</t>
+        </is>
+      </c>
+      <c r="B307">
+        <v>4.802770205240314e-07</v>
+      </c>
+      <c r="C307">
+        <v>6.421530678862818e-06</v>
+      </c>
+      <c r="D307">
+        <v>0.0001035840066293764</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Fac_electrical</t>
+        </is>
+      </c>
+      <c r="B308">
+        <v>7.200073717724707e-08</v>
+      </c>
+      <c r="C308">
+        <v>4.281020452575212e-06</v>
+      </c>
+      <c r="D308">
+        <v>0.0001035840066293764</v>
       </c>
     </row>
   </sheetData>
